--- a/datastatic/datasets/online/D-Resources_Resource_productivity_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/D-Resources_Resource_productivity_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D-Resources_Resource_productivity_EUROSTAT_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D-Resources_Resource_productivi" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D-Resources_Resource_productivity_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/D-Resources_Resource_productivity_EUROSTAT_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>original_title</t>
   </si>
@@ -277,10 +277,10 @@
     <t>Norway</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
     <t>:</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
   </si>
   <si>
     <t>Macedonia</t>
@@ -296,7 +296,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -320,6 +320,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -368,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -409,6 +414,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1205,8 +1213,8 @@
       <c r="A66" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>88</v>
+      <c r="B66" s="14">
+        <v>2.608</v>
       </c>
       <c r="C66" s="13">
         <v>2.608</v>
@@ -1220,13 +1228,13 @@
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="14">
+        <v>5.2685</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>88</v>
       </c>
       <c r="D67" s="13">
         <v>5.2685</v>
@@ -1239,11 +1247,11 @@
       <c r="A68" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>88</v>
+      <c r="B68" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="D68" s="13">
         <v>0.4219</v>
@@ -1256,8 +1264,8 @@
       <c r="A69" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>88</v>
+      <c r="B69" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="C69" s="13">
         <v>0.3233</v>
